--- a/biology/Botanique/Liste_des_plantes_à_feuilles_comestibles/Liste_des_plantes_à_feuilles_comestibles.xlsx
+++ b/biology/Botanique/Liste_des_plantes_à_feuilles_comestibles/Liste_des_plantes_à_feuilles_comestibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_feuilles_comestibles</t>
+          <t>Liste_des_plantes_à_feuilles_comestibles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste des plantes à feuilles comestibles recense les plantes dont les feuilles sont, ou ont été, consommées par l'être humain, par exemple comme légume-feuille ou herbes aromatiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_feuilles_comestibles</t>
+          <t>Liste_des_plantes_à_feuilles_comestibles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inscription sur cette liste n'implique pas nécessairement la sécurité. 
 Bien que la plupart de ces feuilles soient des aliments sains et sans problème, certaines peuvent avoir besoin de traitements spéciaux afin d'éviter tout risque d'intoxication :
@@ -522,9 +536,9 @@
 Certaines plantes comestibles, deviennent dangereuses par les parasites qu'elles peuvent nous transmettre. Ces parasites sont par exemple, en Europe :
 la douve du foie qui peut contaminer les plantes aquatiques poussant dans les cours d'eau en aval des lieux où pâturent des animaux, voire dans les prés humides ;
 l’échinocoque, un minuscule ténia qui pourrait être transmis par des plantes souillées par les matières fécales (et non par l'urine) de chiens (surtout), renards et parfois chats ayant croqué des campagnols infestés. Toutes les plantes assez basses poussant dans les lieux fréquentés par les canidés domestiques ou sauvages peuvent être contaminées, du moins dans la région méditerranéenne où sévit Echinococcus granulosus, dans l'est et le nord de la France, une partie du Massif central, en Suisse et en Belgique, où la maladie à Echinococcus multilocularis est endémique  et s'étend rapidement en suivant la migration des espèces de campagnols infestés.
-La meilleure prévention est de faire cuire les végétaux soupçonnés d'être contaminés (les parasites ne supportant pas plus de 3 minutes au-dessus de 60 °C) car même un lavage soigneux n'est pas suffisant[1].
+La meilleure prévention est de faire cuire les végétaux soupçonnés d'être contaminés (les parasites ne supportant pas plus de 3 minutes au-dessus de 60 °C) car même un lavage soigneux n'est pas suffisant.
 Des plantes comestibles pourries, ou touchées par certaines maladies peuvent aussi être dangereuses. L'exemple le plus classique est celui de l'ergot du seigle, une maladie cryptogamique qui a provoqué des ravages au Moyen Âge.
-La base de la liste proposée ci-après est la première édition du livre Cornucopia de Stephen Facciola[2], cité sur le site  Leaf for Life[3], mais la liste a pu être modifiée ou augmentée, selon les principes de Wikipédia.
+La base de la liste proposée ci-après est la première édition du livre Cornucopia de Stephen Facciola, cité sur le site  Leaf for Life, mais la liste a pu être modifiée ou augmentée, selon les principes de Wikipédia.
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_feuilles_comestibles</t>
+          <t>Liste_des_plantes_à_feuilles_comestibles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La mention Ecoport indique les sources provenant du site Ecoport, portail écologique créé en collaboration avec la FAO[4].
-La mention GRIN indique les sources provenant du site GRIN Taxonomy of Food Plants[5].
-La mention Duke indique les sources provenant du livre de James Duke, Handbook of Energy Crops[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La mention Ecoport indique les sources provenant du site Ecoport, portail écologique créé en collaboration avec la FAO.
+La mention GRIN indique les sources provenant du site GRIN Taxonomy of Food Plants.
+La mention Duke indique les sources provenant du livre de James Duke, Handbook of Energy Crops.</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_feuilles_comestibles</t>
+          <t>Liste_des_plantes_à_feuilles_comestibles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
